--- a/testdaten/Firma1/IG Metal (IGM).xlsx
+++ b/testdaten/Firma1/IG Metal (IGM).xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_d12\MitbestimmIT\testdaten\Firma1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C05F2-3F6E-4E3F-94BE-B9B538D52C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055B424-467B-42A2-94FE-57E44634E714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="3135" windowWidth="24345" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IG Metall(IGM)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -454,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -470,9 +470,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -707,7 +704,7 @@
       <c r="F1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>113</v>
       </c>
     </row>
